--- a/result_KR_20250602.xlsx
+++ b/result_KR_20250602.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,52 +661,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>402340.KS</t>
+          <t>064350.KS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK Square Co., Ltd.</t>
+          <t>Hyundai Rotem Company</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Railroads</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>110,300 (-3.92%)</t>
+          <t>152,000 (+3.83%)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.77</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.97</v>
+        <v>40.77</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>7.43%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>223.13</v>
+        <v>27.47</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>45.85%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -715,12 +715,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>strong_buy(+12%)</t>
+          <t>strong_buy(+5%)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>22.4%/26.1%/43.6%</t>
+          <t>94.8%/135.0%/314.4%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -728,52 +728,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064350.KS</t>
+          <t>402340.KS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyundai Rotem Company</t>
+          <t>SK Square Co., Ltd.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>152,000 (+3.83%)</t>
+          <t>110,300 (-3.92%)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>8.109999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H5" t="n">
-        <v>40.77</v>
+        <v>3.97</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>27.47</v>
+        <v>223.13</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>45.85%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -782,12 +782,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>strong_buy(+5%)</t>
+          <t>strong_buy(+12%)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>94.8%/135.0%/314.4%</t>
+          <t>22.4%/26.1%/43.6%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -862,66 +862,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>271560.KS</t>
+          <t>000270.KS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORION Corp.</t>
+          <t>Kia Corporation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Confectioners</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>110,800 (+0.36%)</t>
+          <t>88,400 (-1.12%)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="n">
-        <v>3.39</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>1.26</v>
+        <v>0.62</v>
       </c>
       <c r="H7" t="n">
-        <v>8.35</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.65%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>536.21</v>
+        <v>124.81</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.92%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>20.33%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>18.80%</t>
+        </is>
+      </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>buy(+23%)</t>
+          <t>buy(+49%)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>8.7%/10.8%/22.6%</t>
+          <t>1.5%/-3.2%/-20.8%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -929,70 +933,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000270.KS</t>
+          <t>042700.KS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kia Corporation</t>
+          <t>HANMI Semiconductor Co., Ltd.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88,400 (-1.12%)</t>
+          <t>80,000 (-0.50%)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>14.04</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>50.35</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18.12%</t>
+          <t>24.05%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>25.45%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>124.81</v>
+        <v>2215.54</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>53.03%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18.80%</t>
+          <t>15.43%</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>buy(+49%)</t>
+          <t>strong_buy(+56%)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.5%/-3.2%/-20.8%</t>
+          <t>-13.8%/-3.3%/-48.2%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1000,66 +1004,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>028050.KS</t>
+          <t>259960.KS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samsung E&amp;A Co., Ltd.</t>
+          <t>KRAFTON, Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21,450 (-1.38%)</t>
+          <t>368,000 (-0.27%)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F9" t="n">
-        <v>1.36</v>
+        <v>6.43</v>
       </c>
       <c r="G9" t="n">
-        <v>0.99</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>5.55</v>
+        <v>12.87</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16.88%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>57.77</v>
+        <v>125.03</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>31.45%</t>
+          <t>-1.46%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>strong_buy(+27%)</t>
+          <t>buy(+31%)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>31.0%/22.3%/-3.9%</t>
+          <t>7.1%/19.3%/49.6%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1067,70 +1071,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>042700.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HANMI Semiconductor Co., Ltd.</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80,000 (-0.50%)</t>
+          <t>1,082,000 (-2.61%)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="F10" t="n">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>14.04</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>50.35</v>
+        <v>29.67</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24.05%</t>
+          <t>39.17%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>25.45%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2215.54</v>
+        <v>23.92</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>53.03%</t>
+          <t>17.37%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>15.43%</t>
+          <t>40.51%</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>strong_buy(+56%)</t>
+          <t>none(+18%)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-13.8%/-3.3%/-48.2%</t>
+          <t>25.8%/103.8%/87.2%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1138,66 +1142,66 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>128940.KS</t>
+          <t>214450.KQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hanmi Pharm. Co., Ltd.</t>
+          <t>PharmaResearch Co., Ltd.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>304,500 (-2.25%)</t>
+          <t>473,500 (+4.99%)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F11" t="n">
-        <v>1.16</v>
+        <v>6.45</v>
       </c>
       <c r="G11" t="n">
-        <v>3.56</v>
+        <v>10.15</v>
       </c>
       <c r="H11" t="n">
-        <v>31.83</v>
+        <v>52.96</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>12.27%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.869999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>88.09%</t>
+          <t>21.46%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>none(+16%)</t>
+          <t>buy(-5%)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>26.9%/9.9%/4.0%</t>
+          <t>62.7%/138.7%/270.8%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1205,66 +1209,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>259960.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KRAFTON, Inc.</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>368,000 (-0.27%)</t>
+          <t>207,500 (+1.47%)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="F12" t="n">
-        <v>6.43</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
-        <v>12.87</v>
+        <v>7.22</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>37.95%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>15.42%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>125.03</v>
+        <v>17.44</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-1.46%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>buy(+31%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>7.1%/19.3%/49.6%</t>
+          <t>9.3%/17.6%/7.6%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1272,70 +1280,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>267260.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>HD Hyundai Electric Co., Ltd.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1,082,000 (-2.61%)</t>
+          <t>378,000 (-0.26%)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>9.880000000000001</v>
+        <v>9.06</v>
       </c>
       <c r="H13" t="n">
-        <v>29.67</v>
+        <v>27.13</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>39.17%</t>
+          <t>42.42%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>23.92</v>
+        <v>22.61</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17.37%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>40.51%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>none(+18%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>25.8%/103.8%/87.2%</t>
+          <t>16.1%/5.3%/38.5%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1343,66 +1347,70 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>214450.KQ</t>
+          <t>012330.KS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PharmaResearch Co., Ltd.</t>
+          <t>Hyundai Mobis Co.,Ltd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Auto Parts</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>473,500 (+4.99%)</t>
+          <t>246,500 (-2.57%)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="F14" t="n">
-        <v>6.45</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>10.15</v>
+        <v>0.48</v>
       </c>
       <c r="H14" t="n">
-        <v>52.96</v>
+        <v>5.49</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>9.6%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12.27%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>27.2</v>
+        <v>23.78</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21.46%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>23.10%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
+      </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>buy(-5%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>62.7%/138.7%/270.8%</t>
+          <t>2.3%/-1.1%/13.6%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1410,70 +1418,70 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>207,500 (+1.47%)</t>
+          <t>56,800 (+1.07%)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="F15" t="n">
-        <v>1.66</v>
+        <v>2.47</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>0.98</v>
       </c>
       <c r="H15" t="n">
-        <v>7.22</v>
+        <v>11.47</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>37.95%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>15.42%</t>
+          <t>4.15%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>17.44</v>
+        <v>36.2</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>-3.79%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>13.16%</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>buy(+28%)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>9.3%/17.6%/8.3%</t>
+          <t>4.8%/2.7%/-24.9%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1481,66 +1489,70 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>267260.KS</t>
+          <t>033780.KS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HD Hyundai Electric Co., Ltd.</t>
+          <t>KT&amp;G Corporation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>378,000 (-0.26%)</t>
+          <t>120,600 (+0.33%)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>2.09</v>
       </c>
       <c r="G16" t="n">
-        <v>9.06</v>
+        <v>1.41</v>
       </c>
       <c r="H16" t="n">
-        <v>27.13</v>
+        <v>10.66</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>22.61</v>
+        <v>28.25</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>-4.22%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-9.89%</t>
+        </is>
+      </c>
       <c r="N16" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>16.1%/5.3%/38.5%</t>
+          <t>22.7%/5.4%/49.1%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1548,66 +1560,66 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>214150.KQ</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLASSYS Inc.</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>58,000 (+1.75%)</t>
+          <t>91,100 (-2.04%)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F17" t="n">
-        <v>3.56</v>
+        <v>1.84</v>
       </c>
       <c r="G17" t="n">
-        <v>8.369999999999999</v>
+        <v>13.06</v>
       </c>
       <c r="H17" t="n">
-        <v>38.23</v>
+        <v>29.64</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>26.49%</t>
+          <t>50.86%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>9.02</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>18.26%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>buy(+25%)</t>
+          <t>none(+51%)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-8.1%/20.2%/23.9%</t>
+          <t>-20.1%/-4.5%/6.9%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1615,70 +1627,66 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>012330.KS</t>
+          <t>000810.KS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hyundai Mobis Co.,Ltd</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Auto Parts</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>246,500 (-2.57%)</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0.08</v>
-      </c>
+          <t>388,000 (-4.08%)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.48</v>
+        <v>1.06</v>
       </c>
       <c r="H18" t="n">
-        <v>5.49</v>
+        <v>7.95</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>23.78</v>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>23.10%</t>
+          <t>16.59%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>buy(+15%)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.3%/-1.1%/13.6%</t>
+          <t>6.6%/7.0%/18.7%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1686,70 +1694,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>024110.KS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Industrial Bank of Korea</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>56,800 (+1.07%)</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.47</v>
-      </c>
+          <t>15,430 (-1.97%)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="H19" t="n">
-        <v>11.47</v>
+        <v>4.97</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.15%</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>36.2</v>
-      </c>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-3.79%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13.16%</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>buy(+28%)</t>
+          <t>hold(+2%)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>4.8%/2.7%/-24.9%</t>
+          <t>6.3%/11.9%/23.3%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1757,70 +1759,62 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>033780.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KT&amp;G Corporation</t>
+          <t>HDHMS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>120,600 (+0.33%)</t>
+          <t>179,900 (+0.06%)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F20" t="n">
-        <v>2.09</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>1.41</v>
+        <v>10.34</v>
       </c>
       <c r="H20" t="n">
-        <v>10.66</v>
+        <v>33.92</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12.49%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>5.67%</t>
-        </is>
-      </c>
+          <t>51.68%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>28.25</v>
+        <v>59.77</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-4.22%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-9.89%</t>
-        </is>
-      </c>
+          <t>23.89%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>22.7%/5.4%/49.1%</t>
+          <t>42.7%/28.6%/29.7%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1828,66 +1822,66 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91,100 (-2.04%)</t>
+          <t>43,350 (-4.52%)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>0.83</v>
       </c>
       <c r="G21" t="n">
-        <v>13.06</v>
+        <v>3.26</v>
       </c>
       <c r="H21" t="n">
-        <v>29.64</v>
+        <v>17.9</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50.86%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>9.02</v>
+        <v>9.83</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>39.34%</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>none(+51%)</t>
+          <t>buy(-6%)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-20.1%/-4.5%/6.9%</t>
+          <t>41.9%/70.6%/161.7%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1895,66 +1889,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>145020.KQ</t>
+          <t>021240.KS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hugel, Inc.</t>
+          <t>COWAY Co., Ltd.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>336,500 (+1.36%)</t>
+          <t>91,100 (+2.47%)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.04</v>
+        <v>0.51</v>
       </c>
       <c r="F22" t="n">
-        <v>9.73</v>
+        <v>0.91</v>
       </c>
       <c r="G22" t="n">
-        <v>4.51</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>26.88</v>
+        <v>11.62</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>19.77%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>141.05</v>
+        <v>12.68</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>3.86%</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>strong_buy(+28%)</t>
+          <t>buy(+12%)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>6.2%/24.2%/69.4%</t>
+          <t>12.5%/51.4%/67.7%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1962,66 +1956,70 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>005935.KS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>388,000 (-4.08%)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>46,350 (+0.54%)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03</v>
+      </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>2.47</v>
       </c>
       <c r="G23" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>4.15%</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>36.2</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16.59%</t>
+          <t>-3.79%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>13.14%</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>buy(+15%)</t>
+          <t>none(+37%)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>6.6%/7.0%/18.7%</t>
+          <t>4.4%/-2.1%/-23.9%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2029,66 +2027,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>241560.KS</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Doosan Bobcat Inc.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Farm &amp; Heavy Construction Machinery</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47,200 (+0.43%)</t>
+          <t>134,300 (+0.45%)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="F24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G24" t="n">
-        <v>0.68</v>
+        <v>1.76</v>
       </c>
       <c r="H24" t="n">
-        <v>8.359999999999999</v>
+        <v>15.61</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.34%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>8.130000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>38.94%</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>none(+21%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.3%/30.6%/-9.4%</t>
+          <t>15.8%/24.4%/-23.7%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -2096,64 +2094,66 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>175330.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JB Financial Group Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18,380 (-2.60%)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>44,400 (+0.68%)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.63</v>
+      </c>
       <c r="G25" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>7.82</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>13.14%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>35.59%</t>
-        </is>
-      </c>
+          <t>32.17%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>none(+17%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>7.6%/2.7%/39.8%</t>
+          <t>26.9%/34.3%/-7.8%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2161,64 +2161,70 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>024110.KS</t>
+          <t>005380.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Industrial Bank of Korea</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15,430 (-1.97%)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>184,000 (-0.70%)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.79</v>
+      </c>
       <c r="G26" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="H26" t="n">
-        <v>4.97</v>
+        <v>3.86</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>31.54</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12.46%</t>
+          <t>25.85%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>13.67%</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>hold(+2%)</t>
+          <t>buy(+55%)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>6.3%/11.9%/23.3%</t>
+          <t>-3.4%/-11.5%/-26.1%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2226,62 +2232,70 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>005389.KS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HDHMS</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>179,900 (+0.06%)</t>
+          <t>146,400 (-0.75%)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03</v>
+        <v>1.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2.42</v>
+        <v>0.79</v>
       </c>
       <c r="G27" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>33.92</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>51.68%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="K27" t="n">
-        <v>59.77</v>
+        <v>31.54</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>23.89%</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>42.7%/28.6%/29.7%</t>
+          <t>-0.7%/-1.7%/1.8%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2289,66 +2303,70 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>005385.KS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>43,350 (-4.52%)</t>
+          <t>146,500 (-0.95%)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="F28" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="G28" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>9.83</v>
+        <v>31.54</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>39.34%</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>buy(-6%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>41.9%/70.6%/161.7%</t>
+          <t>-0.3%/-1.3%/1.8%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2356,66 +2374,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>021240.KS</t>
+          <t>030200.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COWAY Co., Ltd.</t>
+          <t>KT Corporation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Furnishings, Fixtures &amp; Appliances</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>91,100 (+2.47%)</t>
+          <t>49,400 (-2.76%)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="F29" t="n">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
-        <v>11.62</v>
+        <v>25.84</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>12.68</v>
+        <v>73.66</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.86%</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>-24.11%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>11.61%</t>
+        </is>
+      </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>buy(+12%)</t>
+          <t>none(+26%)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>12.5%/51.4%/67.7%</t>
+          <t>6.4%/14.8%/42.6%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2423,29 +2445,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>005935.KS</t>
+          <t>005387.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46,350 (+0.54%)</t>
+          <t>146,600 (-0.74%)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.03</v>
+        <v>1.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.47</v>
+        <v>0.79</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2455,38 +2477,38 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.15%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>36.2</v>
+        <v>31.54</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-3.79%</t>
+          <t>70.14%</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>13.14%</t>
+          <t>13.46%</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>none(+37%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>4.4%/-2.1%/-23.9%</t>
+          <t>-3.8%/-5.6%/0.4%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2494,66 +2516,66 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>196170.KQ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>ALTEOGEN Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>134,300 (+0.45%)</t>
+          <t>350,000 (+6.06%)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F31" t="n">
-        <v>1.63</v>
+        <v>11.58</v>
       </c>
       <c r="G31" t="n">
-        <v>1.76</v>
+        <v>68.17</v>
       </c>
       <c r="H31" t="n">
-        <v>15.61</v>
+        <v>298.63</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>34.69%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7.82</v>
+        <v>37.64</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>buy(+16%)</t>
+          <t>strong_buy(+61%)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>15.8%/24.4%/-23.7%</t>
+          <t>-9.6%/19.9%/47.1%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2561,29 +2583,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>000815.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>44,400 (+0.68%)</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.08</v>
-      </c>
+          <t>286,000 (-3.05%)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2593,25 +2613,27 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>7.82</v>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>32.17%</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>24.58%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
       <c r="N32" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2620,7 +2642,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>26.9%/34.3%/-7.8%</t>
+          <t>5.7%/6.3%/16.4%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2628,66 +2650,66 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>035250.KS</t>
+          <t>012450.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kangwon Land, Inc.</t>
+          <t>Hanwha Aerospace Co., Ltd.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Resorts &amp; Casinos</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17,120 (+0.47%)</t>
+          <t>835,000 (+2.96%)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.01</v>
+        <v>1.23</v>
       </c>
       <c r="F33" t="n">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="n">
-        <v>0.88</v>
+        <v>7.72</v>
       </c>
       <c r="H33" t="n">
-        <v>7.59</v>
+        <v>18.15</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>36.98%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>103.33</v>
+        <v>7.14</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>90.81%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>strong_buy(+15%)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>14.7%/6.1%/24.1%</t>
+          <t>40.6%/122.4%/268.0%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2695,70 +2717,66 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>005380.KS</t>
+          <t>009540.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>184,000 (-0.70%)</t>
+          <t>312,500 (-1.26%)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.3</v>
+        <v>0.15</v>
       </c>
       <c r="F34" t="n">
-        <v>0.79</v>
+        <v>1.08</v>
       </c>
       <c r="G34" t="n">
-        <v>0.44</v>
+        <v>1.99</v>
       </c>
       <c r="H34" t="n">
-        <v>3.86</v>
+        <v>18.85</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>13.86%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>31.54</v>
+        <v>6.96</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>25.85%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>13.67%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>buy(+55%)</t>
+          <t>buy(+11%)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-3.4%/-11.5%/-26.1%</t>
+          <t>46.0%/58.7%/144.5%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2766,68 +2784,66 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>029780.KS</t>
+          <t>079550.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samsung Card Co., Ltd.</t>
+          <t>LIG Nex1 Co., Ltd.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Credit Services</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>42,800 (-0.93%)</t>
+          <t>447,500 (+4.31%)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.24</v>
+        <v>0.34</v>
       </c>
       <c r="F35" t="n">
-        <v>6.39</v>
+        <v>0.86</v>
       </c>
       <c r="G35" t="n">
-        <v>0.54</v>
+        <v>8.06</v>
       </c>
       <c r="H35" t="n">
-        <v>6.87</v>
+        <v>43.99</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>20.42%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.28%</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>19.2</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11.19%</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>9.60%</t>
-        </is>
-      </c>
+          <t>31.76%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>none(+12%)</t>
+          <t>strong_buy(-4%)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.7%/8.3%/17.9%</t>
+          <t>65.4%/97.2%/172.5%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2835,828 +2851,73 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>005389.KS</t>
+          <t>000720.KS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>146,400 (-0.75%)</t>
+          <t>65,700 (+2.98%)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="F36" t="n">
-        <v>0.79</v>
+        <v>1.44</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>-7.92%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-3.18%</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>31.54</v>
+        <v>-12.47</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>70.14%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13.56%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(-19%)</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-0.7%/-1.7%/1.8%</t>
+          <t>99.6%/136.3%/102.0%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>005385.KS</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Hyundai Motor Company</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Auto Manufacturers</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>146,500 (-0.95%)</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>11.69%</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>none(N/A)</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>-0.3%/-1.3%/1.8%</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>030200.KS</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>KT Corporation</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>49,400 (-2.76%)</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1.47%</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>73.66</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-24.11%</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>11.61%</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>none(+26%)</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>6.4%/14.8%/42.6%</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>000720.KS</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Engineering &amp; Construction</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>65,700 (+2.98%)</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-7.92%</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>-3.18%</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>-12.47</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>strong_buy(-19%)</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>99.6%/136.3%/102.0%</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>005387.KS</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Hyundai Motor Company</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Auto Manufacturers</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>146,600 (-0.74%)</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>11.69%</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>13.46%</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>none(N/A)</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>-3.8%/-5.6%/0.4%</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>196170.KQ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ALTEOGEN Inc.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>350,000 (+6.06%)</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="G41" t="n">
-        <v>68.17</v>
-      </c>
-      <c r="H41" t="n">
-        <v>298.63</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>34.69%</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>9.35%</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>strong_buy(+61%)</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>-9.6%/19.9%/47.1%</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>000815.KS</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Insurance - Property &amp; Casualty</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>286,000 (-3.05%)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>12.51%</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>24.58%</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>13.52%</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>none(N/A)</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>5.7%/6.3%/16.4%</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>012450.KS</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>835,000 (+2.96%)</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="H43" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>36.98%</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>90.81%</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>5</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>strong_buy(+15%)</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>40.6%/122.4%/268.0%</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>009540.KS</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>312,500 (-1.26%)</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H44" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>13.86%</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>3.68%</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>5</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>buy(+11%)</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>46.0%/58.7%/144.5%</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>079550.KS</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>LIG Nex1 Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>447,500 (+4.31%)</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="G45" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H45" t="n">
-        <v>43.99</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>20.42%</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>31.76%</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>5</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>strong_buy(-4%)</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>65.4%/97.2%/172.5%</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>001045.KS</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CJ Corporation</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Conglomerates</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>77,800 (-0.26%)</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>3.26%</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>22.47%</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>13.37%</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>5</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>none(N/A)</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>35.8%/43.5%/34.3%</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>039490.KS</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Kiwoom Securities Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>162,400 (-0.12%)</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>15.43%</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1.47%</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>-14.07%</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>5</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>strong_buy(+7%)</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>42.2%/36.6%/32.0%</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_KR_20250602.xlsx
+++ b/result_KR_20250602.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,70 +523,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>086280.KS</t>
+          <t>011200.KS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyundai Glovis Co., Ltd.</t>
+          <t>HMM Co.,Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Integrated Freight &amp; Logistics</t>
+          <t>Marine Shipping</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111,600 (-1.59%)</t>
+          <t>22,300 (+4.69%)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="H2" t="n">
-        <v>7.65</v>
+        <v>4.46</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14.11%</t>
+          <t>16.06%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>9.27</v>
+        <v>26.28</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-3.28%</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12.16%</t>
-        </is>
-      </c>
+          <t>89.27%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>buy(+41%)</t>
+          <t>hold(+3%)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-11.5%/-4.1%/25.4%</t>
+          <t>13.8%/23.7%/20.4%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -594,66 +590,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>011200.KS</t>
+          <t>086280.KS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HMM Co.,Ltd</t>
+          <t>Hyundai Glovis Co., Ltd.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marine Shipping</t>
+          <t>Integrated Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22,300 (+4.69%)</t>
+          <t>111,600 (-1.59%)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="F3" t="n">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="H3" t="n">
-        <v>4.46</v>
+        <v>7.65</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16.06%</t>
+          <t>14.11%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>26.28</v>
+        <v>9.27</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>89.27%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>-3.28%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>12.16%</t>
+        </is>
+      </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>hold(+3%)</t>
+          <t>buy(+41%)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>13.8%/23.7%/20.4%</t>
+          <t>-11.5%/-4.1%/25.4%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -661,52 +661,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>064350.KS</t>
+          <t>402340.KS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyundai Rotem Company</t>
+          <t>SK Square Co., Ltd.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>152,000 (+3.83%)</t>
+          <t>110,300 (-3.92%)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H4" t="n">
-        <v>40.77</v>
+        <v>3.97</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>27.47</v>
+        <v>223.13</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>45.85%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -715,12 +715,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>strong_buy(+5%)</t>
+          <t>strong_buy(+12%)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>94.8%/135.0%/314.4%</t>
+          <t>22.4%/26.1%/43.6%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -728,52 +728,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>402340.KS</t>
+          <t>064350.KS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SK Square Co., Ltd.</t>
+          <t>Hyundai Rotem Company</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Railroads</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>110,300 (-3.92%)</t>
+          <t>152,000 (+3.83%)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3.97</v>
+        <v>40.77</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>7.43%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>223.13</v>
+        <v>27.47</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>45.85%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -782,12 +782,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>strong_buy(+12%)</t>
+          <t>strong_buy(+5%)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>22.4%/26.1%/43.6%</t>
+          <t>94.8%/135.0%/314.4%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -862,70 +862,66 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000270.KS</t>
+          <t>271560.KS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kia Corporation</t>
+          <t>ORION Corp.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Confectioners</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88,400 (-1.12%)</t>
+          <t>110,800 (+0.36%)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>3.39</v>
       </c>
       <c r="G7" t="n">
-        <v>0.62</v>
+        <v>1.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>8.35</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18.12%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>8.65%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>124.81</v>
+        <v>536.21</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20.33%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>18.80%</t>
-        </is>
-      </c>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>buy(+49%)</t>
+          <t>buy(+23%)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.5%/-3.2%/-20.8%</t>
+          <t>8.7%/10.8%/22.6%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -933,70 +929,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>042700.KS</t>
+          <t>000270.KS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HANMI Semiconductor Co., Ltd.</t>
+          <t>Kia Corporation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80,000 (-0.50%)</t>
+          <t>88,400 (-1.12%)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F8" t="n">
-        <v>2.33</v>
+        <v>1.47</v>
       </c>
       <c r="G8" t="n">
-        <v>14.04</v>
+        <v>0.62</v>
       </c>
       <c r="H8" t="n">
-        <v>50.35</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24.05%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>25.45%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2215.54</v>
+        <v>124.81</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>53.03%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15.43%</t>
+          <t>18.80%</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>strong_buy(+56%)</t>
+          <t>buy(+49%)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-13.8%/-3.3%/-48.2%</t>
+          <t>1.5%/-3.2%/-20.8%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1004,66 +1000,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>259960.KS</t>
+          <t>028050.KS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KRAFTON, Inc.</t>
+          <t>Samsung E&amp;A Co., Ltd.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>368,000 (-0.27%)</t>
+          <t>21,450 (-1.38%)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>6.43</v>
+        <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>0.99</v>
       </c>
       <c r="H9" t="n">
-        <v>12.87</v>
+        <v>5.55</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>16.88%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>125.03</v>
+        <v>57.77</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.46%</t>
+          <t>31.45%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>buy(+31%)</t>
+          <t>strong_buy(+27%)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>7.1%/19.3%/49.6%</t>
+          <t>31.0%/22.3%/-3.9%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1071,70 +1067,70 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>042700.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>HANMI Semiconductor Co., Ltd.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1,082,000 (-2.61%)</t>
+          <t>80,000 (-0.50%)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="G10" t="n">
-        <v>9.880000000000001</v>
+        <v>14.04</v>
       </c>
       <c r="H10" t="n">
-        <v>29.67</v>
+        <v>50.35</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>39.17%</t>
+          <t>24.05%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>25.45%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>23.92</v>
+        <v>2215.54</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>17.37%</t>
+          <t>53.03%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>40.51%</t>
+          <t>15.43%</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>none(+18%)</t>
+          <t>strong_buy(+56%)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>25.8%/103.8%/87.2%</t>
+          <t>-13.8%/-3.3%/-48.2%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1142,66 +1138,66 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>214450.KQ</t>
+          <t>128940.KS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PharmaResearch Co., Ltd.</t>
+          <t>Hanmi Pharm. Co., Ltd.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>473,500 (+4.99%)</t>
+          <t>304,500 (-2.25%)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F11" t="n">
-        <v>6.45</v>
+        <v>1.16</v>
       </c>
       <c r="G11" t="n">
-        <v>10.15</v>
+        <v>3.56</v>
       </c>
       <c r="H11" t="n">
-        <v>52.96</v>
+        <v>31.83</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.27%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>27.2</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21.46%</t>
+          <t>88.09%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>buy(-5%)</t>
+          <t>none(+16%)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>62.7%/138.7%/270.8%</t>
+          <t>26.9%/9.9%/4.0%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1209,70 +1205,66 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>259960.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>KRAFTON, Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>207,500 (+1.47%)</t>
+          <t>368,000 (-0.27%)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>6.43</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>7.22</v>
+        <v>12.87</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>37.95%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15.42%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17.44</v>
+        <v>125.03</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>buy(+31%)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>9.3%/17.6%/7.6%</t>
+          <t>7.1%/19.3%/49.6%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1280,66 +1272,70 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>267260.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HD Hyundai Electric Co., Ltd.</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>378,000 (-0.26%)</t>
+          <t>1,082,000 (-2.61%)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="G13" t="n">
-        <v>9.06</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>27.13</v>
+        <v>29.67</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>39.17%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>22.61</v>
+        <v>23.92</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+          <t>17.37%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>40.51%</t>
+        </is>
+      </c>
       <c r="N13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>strong_buy(+19%)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>16.1%/5.3%/38.5%</t>
+          <t>25.8%/103.8%/87.2%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1347,70 +1343,66 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>012330.KS</t>
+          <t>214450.KQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hyundai Mobis Co.,Ltd</t>
+          <t>PharmaResearch Co., Ltd.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Auto Parts</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>246,500 (-2.57%)</t>
+          <t>473,500 (+4.99%)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>6.45</v>
       </c>
       <c r="G14" t="n">
-        <v>0.48</v>
+        <v>10.15</v>
       </c>
       <c r="H14" t="n">
-        <v>5.49</v>
+        <v>52.96</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>12.27%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>23.78</v>
+        <v>27.2</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>23.10%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2.54%</t>
-        </is>
-      </c>
+          <t>21.46%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>buy(-5%)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.3%/-1.1%/13.6%</t>
+          <t>62.7%/138.7%/270.8%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1418,70 +1410,70 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56,800 (+1.07%)</t>
+          <t>207,500 (+1.47%)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="F15" t="n">
-        <v>2.47</v>
+        <v>1.66</v>
       </c>
       <c r="G15" t="n">
-        <v>0.98</v>
+        <v>1.93</v>
       </c>
       <c r="H15" t="n">
-        <v>11.47</v>
+        <v>7.22</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>37.95%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.15%</t>
+          <t>15.42%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>36.2</v>
+        <v>17.44</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-3.79%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13.16%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>buy(+28%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>4.8%/2.7%/-24.9%</t>
+          <t>9.3%/17.6%/7.6%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1489,70 +1481,66 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>033780.KS</t>
+          <t>214150.KQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KT&amp;G Corporation</t>
+          <t>CLASSYS Inc.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>120,600 (+0.33%)</t>
+          <t>58,000 (+1.75%)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2.09</v>
+        <v>3.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.41</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>10.66</v>
+        <v>38.23</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>26.49%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>28.25</v>
+        <v>60</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-4.22%</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-9.89%</t>
-        </is>
-      </c>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>buy(+25%)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>22.7%/5.4%/49.1%</t>
+          <t>-8.1%/20.2%/23.9%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1560,66 +1548,70 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>012330.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>Hyundai Mobis Co.,Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Auto Parts</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91,100 (-2.04%)</t>
+          <t>246,500 (-2.57%)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>13.06</v>
+        <v>0.48</v>
       </c>
       <c r="H17" t="n">
-        <v>29.64</v>
+        <v>5.49</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50.86%</t>
+          <t>9.6%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9.02</v>
+        <v>23.78</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>23.10%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
+      </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>none(+51%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-20.1%/-4.5%/6.9%</t>
+          <t>2.3%/-1.1%/13.6%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1627,66 +1619,70 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>388,000 (-4.08%)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>56,800 (+1.07%)</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03</v>
+      </c>
       <c r="F18" t="n">
-        <v>1.45</v>
+        <v>2.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="H18" t="n">
-        <v>7.95</v>
+        <v>11.47</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>4.15%</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>36.2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>16.59%</t>
+          <t>-3.79%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>13.16%</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>buy(+15%)</t>
+          <t>buy(+28%)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>6.6%/7.0%/18.7%</t>
+          <t>4.8%/2.7%/-24.9%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1694,64 +1690,66 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>024110.KS</t>
+          <t>267260.KS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Industrial Bank of Korea</t>
+          <t>HD Hyundai Electric Co., Ltd.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15,430 (-1.97%)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>378,000 (-0.26%)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G19" t="n">
-        <v>0.36</v>
+        <v>9.06</v>
       </c>
       <c r="H19" t="n">
-        <v>4.97</v>
+        <v>27.13</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>42.42%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>12.88%</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>22.61</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12.46%</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>8.63%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>hold(+2%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>6.3%/11.9%/23.3%</t>
+          <t>16.1%/5.3%/38.5%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1759,62 +1757,70 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>033780.KS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HDHMS</t>
+          <t>KT&amp;G Corporation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>179,900 (+0.06%)</t>
+          <t>120,600 (+0.33%)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
       <c r="G20" t="n">
-        <v>10.34</v>
+        <v>1.41</v>
       </c>
       <c r="H20" t="n">
-        <v>33.92</v>
+        <v>10.66</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>51.68%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5.67%</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>59.77</v>
+        <v>28.25</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>23.89%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+          <t>-4.22%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-9.89%</t>
+        </is>
+      </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>42.7%/28.6%/29.7%</t>
+          <t>22.7%/5.4%/49.1%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1822,66 +1828,66 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43,350 (-4.52%)</t>
+          <t>91,100 (-2.04%)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F21" t="n">
-        <v>0.83</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>3.26</v>
+        <v>13.06</v>
       </c>
       <c r="H21" t="n">
-        <v>17.9</v>
+        <v>29.64</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>50.86%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>9.83</v>
+        <v>9.02</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>39.34%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>buy(-6%)</t>
+          <t>none(+51%)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>41.9%/70.6%/161.7%</t>
+          <t>-20.1%/-4.5%/6.9%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1889,66 +1895,66 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>021240.KS</t>
+          <t>145020.KQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COWAY Co., Ltd.</t>
+          <t>Hugel, Inc.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Furnishings, Fixtures &amp; Appliances</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91,100 (+2.47%)</t>
+          <t>336,500 (+1.36%)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.91</v>
+        <v>9.73</v>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>4.51</v>
       </c>
       <c r="H22" t="n">
-        <v>11.62</v>
+        <v>26.88</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>18.53%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>11.97%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>12.68</v>
+        <v>141.05</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3.86%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>buy(+12%)</t>
+          <t>strong_buy(+28%)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>12.5%/51.4%/67.7%</t>
+          <t>6.2%/24.2%/69.4%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1956,70 +1962,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>005935.KS</t>
+          <t>000810.KS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46,350 (+0.54%)</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03</v>
-      </c>
+          <t>388,000 (-4.08%)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>2.47</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4.15%</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>36.2</v>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-3.79%</t>
+          <t>16.59%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13.14%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>none(+37%)</t>
+          <t>buy(+15%)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4.4%/-2.1%/-23.9%</t>
+          <t>6.6%/7.0%/18.7%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2027,66 +2029,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>241560.KS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>Doosan Bobcat Inc.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Farm &amp; Heavy Construction Machinery</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>134,300 (+0.45%)</t>
+          <t>47,200 (+0.43%)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1.76</v>
+        <v>0.68</v>
       </c>
       <c r="H24" t="n">
-        <v>15.61</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>4.34%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>7.82</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>38.94%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>none(+21%)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>15.8%/24.4%/-23.7%</t>
+          <t>1.3%/30.6%/-9.4%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -2094,66 +2096,64 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>175330.KS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>JB Financial Group Co., Ltd.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44,400 (+0.68%)</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.63</v>
-      </c>
+          <t>18,380 (-2.60%)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>7.82</v>
-      </c>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>32.17%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>35.59%</t>
+        </is>
+      </c>
       <c r="N25" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>none(+17%)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>26.9%/34.3%/-7.8%</t>
+          <t>7.6%/2.7%/39.8%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2161,70 +2161,64 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005380.KS</t>
+          <t>024110.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Industrial Bank of Korea</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>184,000 (-0.70%)</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.79</v>
-      </c>
+          <t>15,430 (-1.97%)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.86</v>
+        <v>4.97</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>31.54</v>
-      </c>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>25.85%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13.67%</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>buy(+55%)</t>
+          <t>hold(+2%)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-3.4%/-11.5%/-26.1%</t>
+          <t>6.3%/11.9%/23.3%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2232,70 +2226,66 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>005389.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>146,400 (-0.75%)</t>
+          <t>43,350 (-4.52%)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>31.54</v>
+        <v>9.83</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
+          <t>39.34%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(-6%)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-0.7%/-1.7%/1.8%</t>
+          <t>41.9%/70.6%/161.7%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2303,70 +2293,62 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>005385.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>HDHMS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>146,500 (-0.95%)</t>
+          <t>179,900 (+0.06%)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.3</v>
+        <v>0.03</v>
       </c>
       <c r="F28" t="n">
-        <v>0.79</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11.69%</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>51.68%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>31.54</v>
+        <v>59.77</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
+          <t>23.89%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-0.3%/-1.3%/1.8%</t>
+          <t>42.7%/28.6%/29.7%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2374,70 +2356,66 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>030200.KS</t>
+          <t>021240.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KT Corporation</t>
+          <t>COWAY Co., Ltd.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Telecom Services</t>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>49,400 (-2.76%)</t>
+          <t>91,100 (+2.47%)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>25.84</v>
+        <v>11.62</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>19.77%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>73.66</v>
+        <v>12.68</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-24.11%</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>11.61%</t>
-        </is>
-      </c>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>none(+26%)</t>
+          <t>buy(+12%)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>6.4%/14.8%/42.6%</t>
+          <t>12.5%/51.4%/67.7%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2445,29 +2423,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>005387.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>146,600 (-0.74%)</t>
+          <t>44,400 (+0.68%)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.3</v>
+        <v>0.08</v>
       </c>
       <c r="F30" t="n">
-        <v>0.79</v>
+        <v>1.63</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2477,29 +2455,25 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>31.54</v>
+        <v>7.82</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>13.46%</t>
-        </is>
-      </c>
+          <t>32.17%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2508,7 +2482,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-3.8%/-5.6%/0.4%</t>
+          <t>26.9%/34.3%/-7.8%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2516,66 +2490,66 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>196170.KQ</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALTEOGEN Inc.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>350,000 (+6.06%)</t>
+          <t>134,300 (+0.45%)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F31" t="n">
-        <v>11.58</v>
+        <v>1.63</v>
       </c>
       <c r="G31" t="n">
-        <v>68.17</v>
+        <v>1.76</v>
       </c>
       <c r="H31" t="n">
-        <v>298.63</v>
+        <v>15.61</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>34.69%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>37.64</v>
+        <v>7.82</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>strong_buy(+61%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-9.6%/19.9%/47.1%</t>
+          <t>15.8%/24.4%/-23.7%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2583,66 +2557,66 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>000815.KS</t>
+          <t>035250.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Kangwon Land, Inc.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Resorts &amp; Casinos</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>286,000 (-3.05%)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>17,120 (+0.47%)</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01</v>
+      </c>
       <c r="F32" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>103.33</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>24.58%</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>13.52%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5.7%/6.3%/16.4%</t>
+          <t>14.7%/6.1%/24.1%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2650,66 +2624,70 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>012450.KS</t>
+          <t>005380.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>835,000 (+2.96%)</t>
+          <t>184,000 (-0.70%)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="G33" t="n">
-        <v>7.72</v>
+        <v>0.44</v>
       </c>
       <c r="H33" t="n">
-        <v>18.15</v>
+        <v>3.86</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>36.98%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>7.14</v>
+        <v>31.54</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>90.81%</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
+          <t>25.85%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>13.67%</t>
+        </is>
+      </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>strong_buy(+15%)</t>
+          <t>buy(+55%)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>40.6%/122.4%/268.0%</t>
+          <t>-3.4%/-11.5%/-26.1%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2717,66 +2695,68 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>009540.KS</t>
+          <t>029780.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+          <t>Samsung Card Co., Ltd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Credit Services</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>312,500 (-1.26%)</t>
+          <t>42,800 (-0.93%)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.15</v>
+        <v>2.24</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08</v>
+        <v>6.39</v>
       </c>
       <c r="G34" t="n">
-        <v>1.99</v>
+        <v>0.54</v>
       </c>
       <c r="H34" t="n">
-        <v>18.85</v>
+        <v>6.87</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.68%</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>6.96</v>
-      </c>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
+          <t>11.19%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>buy(+11%)</t>
+          <t>none(+12%)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>46.0%/58.7%/144.5%</t>
+          <t>1.7%/8.3%/17.9%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2784,66 +2764,70 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>079550.KS</t>
+          <t>005385.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>447,500 (+4.31%)</t>
+          <t>146,500 (-0.95%)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.34</v>
+        <v>1.3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="G35" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>43.99</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20.42%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>19.2</v>
+        <v>31.54</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>31.76%</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>strong_buy(-4%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>65.4%/97.2%/172.5%</t>
+          <t>-0.3%/-1.3%/1.8%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2851,73 +2835,406 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>196170.KQ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ALTEOGEN Inc.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>350,000 (+6.06%)</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="H36" t="n">
+        <v>298.63</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>34.69%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>strong_buy(+61%)</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-9.6%/19.9%/47.1%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>009540.KS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>312,500 (-1.26%)</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H37" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13.86%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>buy(+11%)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>46.0%/58.7%/144.5%</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>012450.KS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hanwha Aerospace Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>835,000 (+2.96%)</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="H38" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>36.98%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>90.81%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>strong_buy(+15%)</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>40.6%/122.4%/268.0%</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>079550.KS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LIG Nex1 Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>447,500 (+4.31%)</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H39" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20.42%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>31.76%</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>strong_buy(-4%)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>65.4%/97.2%/172.5%</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>000720.KS</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Engineering &amp; Construction</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>65,700 (+2.98%)</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E40" t="n">
         <v>0.34</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F40" t="n">
         <v>1.44</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G40" t="n">
         <v>0.92</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>-7.92%</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>-3.18%</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K40" t="n">
         <v>-12.47</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>44.38%</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>1.84%</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="N40" t="n">
         <v>5</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>strong_buy(-19%)</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>strong_buy(-17%)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>99.6%/136.3%/102.0%</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>039490.KS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Kiwoom Securities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>162,400 (-0.12%)</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>15.43%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.47%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-14.07%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>strong_buy(+7%)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>42.2%/36.6%/32.0%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_KR_20250602.xlsx
+++ b/result_KR_20250602.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,52 +661,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>402340.KS</t>
+          <t>064350.KS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK Square Co., Ltd.</t>
+          <t>Hyundai Rotem Company</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Railroads</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>110,300 (-3.92%)</t>
+          <t>152,000 (+3.83%)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.77</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.97</v>
+        <v>40.77</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>7.43%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>223.13</v>
+        <v>27.47</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>45.85%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -715,12 +715,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>strong_buy(+12%)</t>
+          <t>strong_buy(+5%)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>22.4%/26.1%/43.6%</t>
+          <t>94.8%/135.0%/314.4%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -728,52 +728,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064350.KS</t>
+          <t>064400.KS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyundai Rotem Company</t>
+          <t>LG CNS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>152,000 (+3.83%)</t>
+          <t>50,400 (+0.40%)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>2.07</v>
       </c>
       <c r="G5" t="n">
-        <v>8.109999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>40.77</v>
+        <v>12.06</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>18.67%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>8.3%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>27.47</v>
+        <v>19.19</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>45.85%</t>
+          <t>18.76%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -782,12 +782,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>strong_buy(+5%)</t>
+          <t>none(+30%)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>94.8%/135.0%/314.4%</t>
+          <t>4.2%/None/None</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -795,52 +795,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>064400.KS</t>
+          <t>271560.KS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG CNS</t>
+          <t>ORION Corp.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Information Technology Services</t>
+          <t>Confectioners</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50,400 (+0.40%)</t>
+          <t>110,800 (+0.36%)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
-        <v>2.07</v>
+        <v>3.39</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>12.06</v>
+        <v>8.35</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18.67%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>8.65%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>19.19</v>
+        <v>536.21</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18.76%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -849,12 +849,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>none(+30%)</t>
+          <t>buy(+23%)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4.2%/None/None</t>
+          <t>8.7%/10.8%/22.6%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -862,66 +862,70 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>271560.KS</t>
+          <t>000270.KS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORION Corp.</t>
+          <t>Kia Corporation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Confectioners</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>110,800 (+0.36%)</t>
+          <t>88,400 (-1.12%)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="n">
-        <v>3.39</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>1.26</v>
+        <v>0.62</v>
       </c>
       <c r="H7" t="n">
-        <v>8.35</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.65%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>536.21</v>
+        <v>124.81</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.92%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>20.33%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>18.80%</t>
+        </is>
+      </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>buy(+23%)</t>
+          <t>buy(+49%)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>8.7%/10.8%/22.6%</t>
+          <t>1.5%/-3.2%/-20.8%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -929,70 +933,66 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000270.KS</t>
+          <t>267260.KS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kia Corporation</t>
+          <t>HD Hyundai Electric Co., Ltd.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88,400 (-1.12%)</t>
+          <t>378,000 (-0.26%)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>9.06</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>27.13</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18.12%</t>
+          <t>42.42%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>124.81</v>
+        <v>22.61</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20.33%</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>18.80%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>buy(+49%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.5%/-3.2%/-20.8%</t>
+          <t>16.1%/5.3%/38.5%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1067,70 +1067,66 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>042700.KS</t>
+          <t>383220.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HANMI Semiconductor Co., Ltd.</t>
+          <t>F&amp;F Co., Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Apparel Manufacturing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80,000 (-0.50%)</t>
+          <t>74,700 (-1.06%)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="F10" t="n">
-        <v>2.33</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>14.04</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>50.35</v>
+        <v>7.86</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24.05%</t>
+          <t>23.25%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>25.45%</t>
+          <t>12.92%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2215.54</v>
+        <v>38.23</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>53.03%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>15.43%</t>
-        </is>
-      </c>
+          <t>111.37%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>strong_buy(+56%)</t>
+          <t>none(+17%)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-13.8%/-3.3%/-48.2%</t>
+          <t>5.4%/51.2%/13.9%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1138,66 +1134,66 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>128940.KS</t>
+          <t>062040.KS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hanmi Pharm. Co., Ltd.</t>
+          <t>SANIL ELECTRIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>304,500 (-2.25%)</t>
+          <t>68,500 (+2.24%)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.16</v>
+        <v>4.92</v>
       </c>
       <c r="G11" t="n">
-        <v>3.56</v>
+        <v>4.79</v>
       </c>
       <c r="H11" t="n">
-        <v>31.83</v>
+        <v>21.84</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>19.11%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.869999999999999</v>
+        <v>54.93</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>88.09%</t>
+          <t>200.26%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>none(+16%)</t>
+          <t>strong_buy(+29%)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>26.9%/9.9%/4.0%</t>
+          <t>5.9%/21.7%/None</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1205,66 +1201,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>259960.KS</t>
+          <t>042700.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KRAFTON, Inc.</t>
+          <t>HANMI Semiconductor Co., Ltd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>368,000 (-0.27%)</t>
+          <t>80,000 (-0.50%)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
-        <v>6.43</v>
+        <v>2.33</v>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>14.04</v>
       </c>
       <c r="H12" t="n">
-        <v>12.87</v>
+        <v>50.35</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>24.05%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>25.45%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>125.03</v>
+        <v>2215.54</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-1.46%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>53.03%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>15.43%</t>
+        </is>
+      </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>buy(+31%)</t>
+          <t>strong_buy(+56%)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>7.1%/19.3%/49.6%</t>
+          <t>-13.8%/-3.3%/-48.2%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1272,70 +1272,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>128940.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>Hanmi Pharm. Co., Ltd.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1,082,000 (-2.61%)</t>
+          <t>304,500 (-2.25%)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="G13" t="n">
-        <v>9.880000000000001</v>
+        <v>3.56</v>
       </c>
       <c r="H13" t="n">
-        <v>29.67</v>
+        <v>31.83</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>39.17%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>23.92</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17.37%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>40.51%</t>
-        </is>
-      </c>
+          <t>88.09%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>strong_buy(+19%)</t>
+          <t>none(+16%)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>25.8%/103.8%/87.2%</t>
+          <t>26.9%/9.9%/4.0%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1343,66 +1339,66 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>214450.KQ</t>
+          <t>035900.KQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PharmaResearch Co., Ltd.</t>
+          <t>JYP Entertainment Corporation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>473,500 (+4.99%)</t>
+          <t>77,000 (+3.08%)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="F14" t="n">
-        <v>6.45</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>10.15</v>
+        <v>5.33</v>
       </c>
       <c r="H14" t="n">
-        <v>52.96</v>
+        <v>26.09</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.61%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12.27%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>27.2</v>
+        <v>635.1900000000001</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21.46%</t>
+          <t>37.45%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>buy(-5%)</t>
+          <t>buy(+12%)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>62.7%/138.7%/270.8%</t>
+          <t>-8.7%/17.4%/32.9%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1410,70 +1406,66 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>259960.KS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>KRAFTON, Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>207,500 (+1.47%)</t>
+          <t>368,000 (-0.27%)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>1.66</v>
+        <v>6.43</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>7.22</v>
+        <v>12.87</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>37.95%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>15.42%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>17.44</v>
+        <v>125.03</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>buy(+31%)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>9.3%/17.6%/7.6%</t>
+          <t>7.1%/19.3%/49.6%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1481,66 +1473,66 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>214150.KQ</t>
+          <t>402340.KS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLASSYS Inc.</t>
+          <t>SK Square Co., Ltd.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>58,000 (+1.75%)</t>
+          <t>110,300 (-3.92%)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="F16" t="n">
-        <v>3.56</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>8.369999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H16" t="n">
-        <v>38.23</v>
+        <v>3.97</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>26.49%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>60</v>
+        <v>223.13</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18.26%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>buy(+25%)</t>
+          <t>strong_buy(+12%)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-8.1%/20.2%/23.9%</t>
+          <t>22.4%/26.1%/43.6%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1548,70 +1540,70 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>012330.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hyundai Mobis Co.,Ltd</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Auto Parts</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>246,500 (-2.57%)</t>
+          <t>1,082,000 (-2.61%)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.48</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>5.49</v>
+        <v>29.67</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>39.17%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>23.78</v>
+        <v>23.92</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>23.10%</t>
+          <t>17.37%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>40.51%</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>strong_buy(+33%)</t>
+          <t>strong_buy(+19%)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2.3%/-1.1%/13.6%</t>
+          <t>25.8%/103.8%/87.2%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1619,70 +1611,66 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>214450.KQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>PharmaResearch Co., Ltd.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>56,800 (+1.07%)</t>
+          <t>473,500 (+4.99%)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="F18" t="n">
-        <v>2.47</v>
+        <v>6.45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.98</v>
+        <v>10.15</v>
       </c>
       <c r="H18" t="n">
-        <v>11.47</v>
+        <v>52.96</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.15%</t>
+          <t>12.27%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>36.2</v>
+        <v>27.2</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-3.79%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>13.16%</t>
-        </is>
-      </c>
+          <t>21.46%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>buy(+28%)</t>
+          <t>buy(-5%)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4.8%/2.7%/-24.9%</t>
+          <t>62.7%/138.7%/270.8%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1690,48 +1678,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>267260.KS</t>
+          <t>035250.KS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HD Hyundai Electric Co., Ltd.</t>
+          <t>Kangwon Land, Inc.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Resorts &amp; Casinos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>378,000 (-0.26%)</t>
+          <t>17,120 (+0.47%)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>9.06</v>
+        <v>0.88</v>
       </c>
       <c r="H19" t="n">
-        <v>27.13</v>
+        <v>7.59</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>22.61</v>
+        <v>103.33</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1740,16 +1728,16 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>16.1%/5.3%/38.5%</t>
+          <t>14.7%/6.1%/24.1%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1757,70 +1745,66 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>033780.KS</t>
+          <t>214150.KQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KT&amp;G Corporation</t>
+          <t>CLASSYS Inc.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>120,600 (+0.33%)</t>
+          <t>58,000 (+1.75%)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2.09</v>
+        <v>3.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.41</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>10.66</v>
+        <v>38.23</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>26.49%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>28.25</v>
+        <v>60</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-4.22%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-9.89%</t>
-        </is>
-      </c>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>buy(+25%)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>22.7%/5.4%/49.1%</t>
+          <t>-8.1%/20.2%/23.9%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1828,66 +1812,70 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>022100.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>Posco Dx Company Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91,100 (-2.04%)</t>
+          <t>21,450 (-2.94%)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
-        <v>13.06</v>
+        <v>6.22</v>
       </c>
       <c r="H21" t="n">
-        <v>29.64</v>
+        <v>36.98</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50.86%</t>
+          <t>16.85%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>9.02</v>
+        <v>530.02</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>80.50%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>none(+51%)</t>
+          <t>none(-20%)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-20.1%/-4.5%/6.9%</t>
+          <t>-6.7%/0.0%/-42.6%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1895,66 +1883,70 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>145020.KQ</t>
+          <t>012330.KS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hugel, Inc.</t>
+          <t>Hyundai Mobis Co.,Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Auto Parts</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>336,500 (+1.36%)</t>
+          <t>246,500 (-2.57%)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F22" t="n">
-        <v>9.73</v>
+        <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>4.51</v>
+        <v>0.48</v>
       </c>
       <c r="H22" t="n">
-        <v>26.88</v>
+        <v>5.49</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>9.6%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>141.05</v>
+        <v>23.78</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>23.65%</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>23.10%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
+      </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>strong_buy(+28%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>6.2%/24.2%/69.4%</t>
+          <t>2.3%/-1.1%/13.6%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1962,66 +1954,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>009540.KS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>388,000 (-4.08%)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>312,500 (-1.26%)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.15</v>
+      </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="G23" t="n">
-        <v>1.06</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>7.95</v>
+        <v>18.85</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>13.86%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.96</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16.59%</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>13.52%</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>buy(+15%)</t>
+          <t>buy(+11%)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>6.6%/7.0%/18.7%</t>
+          <t>46.0%/58.7%/144.5%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2029,66 +2021,70 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>241560.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Doosan Bobcat Inc.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Farm &amp; Heavy Construction Machinery</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>47,200 (+0.43%)</t>
+          <t>56,800 (+1.07%)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F24" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="H24" t="n">
-        <v>8.359999999999999</v>
+        <v>11.47</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.34%</t>
+          <t>4.15%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>8.130000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>38.94%</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>none(+21%)</t>
+          <t>buy(+28%)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.3%/30.6%/-9.4%</t>
+          <t>4.8%/2.7%/-24.9%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -2096,64 +2092,70 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>175330.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JB Financial Group Co., Ltd.</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18,380 (-2.60%)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>207,500 (+1.47%)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.66</v>
+      </c>
       <c r="G25" t="n">
-        <v>0.63</v>
+        <v>1.93</v>
       </c>
       <c r="H25" t="n">
-        <v>5.34</v>
+        <v>7.22</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>37.95%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>15.42%</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>17.44</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>13.14%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>35.59%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>none(+17%)</t>
+          <t>strong_buy(+33%)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>7.6%/2.7%/39.8%</t>
+          <t>9.3%/17.6%/7.6%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2161,64 +2163,70 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>024110.KS</t>
+          <t>033780.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Industrial Bank of Korea</t>
+          <t>KT&amp;G Corporation</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15,430 (-1.97%)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>120,600 (+0.33%)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.09</v>
+      </c>
       <c r="G26" t="n">
-        <v>0.36</v>
+        <v>1.41</v>
       </c>
       <c r="H26" t="n">
-        <v>4.97</v>
+        <v>10.66</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>5.67%</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>28.25</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12.46%</t>
+          <t>-4.22%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>-9.89%</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>hold(+2%)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>6.3%/11.9%/23.3%</t>
+          <t>22.7%/5.4%/49.1%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2226,66 +2234,66 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>002790.KS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>AMOREPACIFIC Holdings Corp.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>43,350 (-4.52%)</t>
+          <t>26,900 (+2.67%)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.83</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>3.26</v>
+        <v>0.72</v>
       </c>
       <c r="H27" t="n">
-        <v>17.9</v>
+        <v>9.67</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>9.83</v>
+        <v>8.56</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>39.34%</t>
+          <t>104.57%</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>buy(-6%)</t>
+          <t>buy(+11%)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>41.9%/70.6%/161.7%</t>
+          <t>28.9%/23.4%/-18.9%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2293,62 +2301,66 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>145020.KQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HDHMS</t>
+          <t>Hugel, Inc.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>179,900 (+0.06%)</t>
+          <t>336,500 (+1.36%)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>9.73</v>
       </c>
       <c r="G28" t="n">
-        <v>10.34</v>
+        <v>4.51</v>
       </c>
       <c r="H28" t="n">
-        <v>33.92</v>
+        <v>26.88</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>51.68%</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>18.53%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>11.97%</t>
+        </is>
+      </c>
       <c r="K28" t="n">
-        <v>59.77</v>
+        <v>141.05</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>strong_buy(+28%)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>42.7%/28.6%/29.7%</t>
+          <t>6.2%/24.2%/69.4%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2356,66 +2368,66 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>021240.KS</t>
+          <t>111770.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COWAY Co., Ltd.</t>
+          <t>Youngone Corporation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Furnishings, Fixtures &amp; Appliances</t>
+          <t>Apparel Manufacturing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>91,100 (+2.47%)</t>
+          <t>59,700 (-1.65%)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="F29" t="n">
-        <v>0.91</v>
+        <v>4.76</v>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>11.62</v>
+        <v>6.06</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>7.63%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>12.68</v>
+        <v>10</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.86%</t>
+          <t>36.72%</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>buy(+12%)</t>
+          <t>strong_buy(+5%)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>12.5%/51.4%/67.7%</t>
+          <t>25.3%/58.1%/86.5%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2423,66 +2435,66 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>000810.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44,400 (+0.68%)</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0.08</v>
-      </c>
+          <t>388,000 (-4.08%)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>7.82</v>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>32.17%</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
+          <t>16.59%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
       <c r="N30" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+15%)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>26.9%/34.3%/-7.8%</t>
+          <t>6.6%/7.0%/18.7%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2490,66 +2502,66 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>241560.KS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>Doosan Bobcat Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Farm &amp; Heavy Construction Machinery</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>134,300 (+0.45%)</t>
+          <t>47,200 (+0.43%)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="n">
-        <v>1.76</v>
+        <v>0.68</v>
       </c>
       <c r="H31" t="n">
-        <v>15.61</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>4.34%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7.82</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>38.94%</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>none(+21%)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>15.8%/24.4%/-23.7%</t>
+          <t>1.3%/30.6%/-9.4%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2557,66 +2569,64 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>035250.KS</t>
+          <t>175330.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kangwon Land, Inc.</t>
+          <t>JB Financial Group Co., Ltd.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Resorts &amp; Casinos</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17,120 (+0.47%)</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.2</v>
-      </c>
+          <t>18,380 (-2.60%)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="H32" t="n">
-        <v>7.59</v>
+        <v>5.34</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>103.33</v>
-      </c>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>35.59%</t>
+        </is>
+      </c>
       <c r="N32" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>none(+17%)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>14.7%/6.1%/24.1%</t>
+          <t>7.6%/2.7%/39.8%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2624,70 +2634,64 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>005380.KS</t>
+          <t>024110.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Industrial Bank of Korea</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>184,000 (-0.70%)</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.79</v>
-      </c>
+          <t>15,430 (-1.97%)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="H33" t="n">
-        <v>3.86</v>
+        <v>4.97</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>31.54</v>
-      </c>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>25.85%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13.67%</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>buy(+55%)</t>
+          <t>hold(+2%)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-3.4%/-11.5%/-26.1%</t>
+          <t>6.3%/11.9%/23.3%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2695,68 +2699,66 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>029780.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Samsung Card Co., Ltd.</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Credit Services</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>42,800 (-0.93%)</t>
+          <t>43,350 (-4.52%)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.24</v>
+        <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>6.39</v>
+        <v>0.83</v>
       </c>
       <c r="G34" t="n">
-        <v>0.54</v>
+        <v>3.26</v>
       </c>
       <c r="H34" t="n">
-        <v>6.87</v>
+        <v>17.9</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.28%</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>9.83</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11.19%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>9.60%</t>
-        </is>
-      </c>
+          <t>39.34%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>none(+12%)</t>
+          <t>buy(-6%)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.7%/8.3%/17.9%</t>
+          <t>41.9%/70.6%/161.7%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2764,70 +2766,62 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>005385.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>HDHMS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>146,500 (-0.95%)</t>
+          <t>179,900 (+0.06%)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.3</v>
+        <v>0.03</v>
       </c>
       <c r="F35" t="n">
-        <v>0.79</v>
+        <v>2.42</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11.69%</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>51.68%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>31.54</v>
+        <v>59.77</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
+          <t>23.89%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-0.3%/-1.3%/1.8%</t>
+          <t>42.7%/28.6%/29.7%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2835,66 +2829,66 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>196170.KQ</t>
+          <t>021240.KS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ALTEOGEN Inc.</t>
+          <t>COWAY Co., Ltd.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>350,000 (+6.06%)</t>
+          <t>91,100 (+2.47%)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.11</v>
+        <v>0.51</v>
       </c>
       <c r="F36" t="n">
-        <v>11.58</v>
+        <v>0.91</v>
       </c>
       <c r="G36" t="n">
-        <v>68.17</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>298.63</v>
+        <v>11.62</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>34.69%</t>
+          <t>19.77%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>37.64</v>
+        <v>12.68</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>3.86%</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>strong_buy(+61%)</t>
+          <t>buy(+12%)</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-9.6%/19.9%/47.1%</t>
+          <t>12.5%/51.4%/67.7%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2902,66 +2896,66 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>009540.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>312,500 (-1.26%)</t>
+          <t>44,400 (+0.68%)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="G37" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.85</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6.96</v>
+        <v>7.82</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>buy(+11%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>46.0%/58.7%/144.5%</t>
+          <t>26.9%/34.3%/-7.8%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2969,66 +2963,66 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>012450.KS</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>835,000 (+2.96%)</t>
+          <t>134,300 (+0.45%)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.23</v>
+        <v>0.08</v>
       </c>
       <c r="F38" t="n">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="G38" t="n">
-        <v>7.72</v>
+        <v>1.76</v>
       </c>
       <c r="H38" t="n">
-        <v>18.15</v>
+        <v>15.61</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>36.98%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7.14</v>
+        <v>7.82</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>90.81%</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>strong_buy(+15%)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>40.6%/122.4%/268.0%</t>
+          <t>15.8%/24.4%/-23.7%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -3036,66 +3030,66 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>079550.KS</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co., Ltd.</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>447,500 (+4.31%)</t>
+          <t>91,100 (-2.04%)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="F39" t="n">
-        <v>0.86</v>
+        <v>1.84</v>
       </c>
       <c r="G39" t="n">
-        <v>8.06</v>
+        <v>13.06</v>
       </c>
       <c r="H39" t="n">
-        <v>43.99</v>
+        <v>29.64</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20.42%</t>
+          <t>50.86%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>19.2</v>
+        <v>9.02</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>31.76%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>strong_buy(-4%)</t>
+          <t>none(+51%)</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>65.4%/97.2%/172.5%</t>
+          <t>-20.1%/-4.5%/6.9%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -3103,70 +3097,66 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>000720.KS</t>
+          <t>002795.KS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+          <t>AMOREPACIFIC Holdings Corp.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>65,700 (+2.98%)</t>
+          <t>11,250 (+1.08%)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="F40" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-7.92%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-3.18%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-12.47</v>
+        <v>8.56</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>44.38%</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
+          <t>104.57%</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>strong_buy(-17%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>99.6%/136.3%/102.0%</t>
+          <t>28.9%/32.4%/-4.1%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -3174,67 +3164,617 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>005380.KS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>184,000 (-0.70%)</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>25.85%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>13.67%</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>buy(+55%)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-3.4%/-11.5%/-26.1%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>029780.KS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Samsung Card Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>42,800 (-0.93%)</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>8.17%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>11.19%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>none(+12%)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.7%/8.3%/17.9%</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>005385.KS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>146,500 (-0.95%)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>none(N/A)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.3%/-1.3%/1.8%</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>011070.KS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LG Innotek Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>142,300 (-1.79%)</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>24.38%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>buy(+43%)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>-11.3%/-12.5%/-41.0%</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>012750.KS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>S-1 Corporation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Security &amp; Protection Services</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>66,500 (+0.45%)</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11.27%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>214</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>none(+12%)</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>9.0%/12.1%/12.6%</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>012450.KS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hanwha Aerospace Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>835,000 (+2.96%)</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>36.98%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>90.81%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>strong_buy(+15%)</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>40.6%/122.4%/268.0%</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>079550.KS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LIG Nex1 Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>447,500 (+4.31%)</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H47" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>20.42%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>31.76%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>strong_buy(-4%)</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>65.4%/97.2%/172.5%</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>000720.KS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>65,700 (+2.98%)</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-7.92%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-3.18%</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>-12.47</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>44.38%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>strong_buy(-17%)</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>99.6%/136.3%/102.0%</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>039490.KS</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Kiwoom Securities Co., Ltd.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>162,400 (-0.12%)</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E49" t="n">
         <v>4.77</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F49" t="n">
         <v>2.18</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G49" t="n">
         <v>0.77</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H49" t="n">
         <v>5.19</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>15.43%</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>1.47%</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>-14.07%</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>5</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>strong_buy(+7%)</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>42.2%/36.6%/32.0%</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
